--- a/DRSERVICE_2025/All_Dr_Service_Delhi Elbrit_Jun-2025.xlsx
+++ b/DRSERVICE_2025/All_Dr_Service_Delhi Elbrit_Jun-2025.xlsx
@@ -965,7 +965,7 @@
     <t xml:space="preserve">Vacant_Mohd Aazim(E00914)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sudip Kumar Jha(E00955)</t>
+    <t xml:space="preserve">Vacant_Sudip Kumar Jha(E00955)</t>
   </si>
   <si>
     <t xml:space="preserve">Mohd.Jabbar (E00658)</t>
